--- a/data/4.HORTA, NO166NO167 OFF.xlsx
+++ b/data/4.HORTA, NO166NO167 OFF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/NDSU/PhD Work/Research/IME Research/AI-Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCDBEEE-1757-3345-9B28-BD2E3EF99FB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234E0E5A-9E8C-E84A-B0A9-DE24C779392A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{EDF77CAA-285E-48B6-B8F8-8B82F4ACCE83}"/>
   </bookViews>
   <sheets>
     <sheet name="4.HORTA, NO166NO167 OFF" sheetId="7" r:id="rId1"/>
@@ -117,10 +117,10 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,30 +438,27 @@
   <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E271" sqref="E271"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="31.83203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="3" max="3" width="9.1640625" style="2"/>
+    <col min="5" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -470,7 +467,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -482,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="6">
-        <v>14.3710654906616</v>
+        <v>722.97384686951705</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -498,212 +495,212 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
+      <c r="E3" s="6">
+        <v>240.95637148259499</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <v>30.396934573205399</v>
+        <v>9.61831409262577</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" s="6">
-        <v>29.201863617877802</v>
+        <v>910.55994697589404</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="6">
-        <v>29.021742780344301</v>
+        <v>788.79928513545099</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>16.6666666666667</v>
+        <v>788.79928513545201</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <v>15.236366056499101</v>
+        <v>1588.05107209845</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" s="6">
-        <v>173.56969938983201</v>
+        <v>1630.48913029806</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>164.27765546822599</v>
+        <v>1876.2147212896</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="6">
-        <v>6.7858234620943199</v>
+        <v>1767.13864431759</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="6">
-        <v>24.054509226845699</v>
+        <v>39.476633241405104</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="6">
-        <v>164.27765546822599</v>
+        <v>135.431234691783</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="6">
-        <v>164.27765546822599</v>
+        <v>640.74249462338003</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" s="6">
-        <v>164.27765546822599</v>
+        <v>630.80194755054401</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,211 +711,211 @@
         <v>1</v>
       </c>
       <c r="C16" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>164.27765546822599</v>
+        <v>1018.81603852132</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <v>131.90303272316601</v>
+        <v>1234.3266172323799</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="6">
-        <v>164.27765546822599</v>
+        <v>341.35812525843102</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="6">
-        <v>86.519211137128096</v>
+        <v>879.55168510336102</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>87.143377412178495</v>
+        <v>1375.4129896771899</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" s="6">
-        <v>57.246728953241899</v>
+        <v>626.22136350334404</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>6.5928999992835999</v>
+        <v>718.196333346806</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="6">
-        <v>6.6499741131697698</v>
+        <v>1669.9577880843101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="6">
-        <v>177.88688611063901</v>
+        <v>198.16891507186901</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
         <v>22</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1">
-        <v>11</v>
-      </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" s="6">
-        <v>56.903032723165801</v>
+        <v>892.68752374284895</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="6">
-        <v>56.903032723165801</v>
+        <v>804.92998541700103</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>23.953245989940299</v>
+        <v>274.47992243127101</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -929,665 +926,665 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" s="6">
-        <v>23.6111111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" s="6">
-        <v>177.66245467484899</v>
+        <v>678.09620337895899</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" s="6">
-        <v>23.6111111111111</v>
+        <v>401.46969860387497</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="6">
-        <v>36.061329092873002</v>
+        <v>483.04004584736498</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" s="6">
-        <v>36.061329092873002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="7">
-        <v>0</v>
+      <c r="E34" s="6">
+        <v>808.05625249298998</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" s="6">
-        <v>0</v>
+        <v>332.90284160451398</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" s="6">
-        <v>0</v>
+        <v>457.22822944258201</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" s="6">
-        <v>21.616584392911101</v>
+        <v>1376.8318820793399</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" s="6">
-        <v>36.061329092873002</v>
+        <v>621.49157481315797</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" s="6">
-        <v>36.061329092873002</v>
+        <v>55.134142318523999</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="6">
-        <v>36.061329092873002</v>
+        <v>77.406377784961293</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" s="6">
-        <v>35.807566242438703</v>
+        <v>374.32811762372899</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" s="1">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>0</v>
+        <v>102.06569848948401</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>0.83333333333333304</v>
+        <v>187.97706679571101</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" s="6">
-        <v>1.3888888888888899</v>
+        <v>2523.37693081931</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="1">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" s="6">
-        <v>1.1111111111111101</v>
+        <v>1197.1800470606699</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="7">
-        <v>0</v>
+      <c r="E46" s="6">
+        <v>1340.13344205628</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47" s="6">
-        <v>21.412867180177798</v>
+        <v>368.72927225334797</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="8">
-        <v>1.72</v>
+      <c r="E48" s="6">
+        <v>369.23557781973199</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" s="6">
-        <v>0</v>
+        <v>1334.41854089342</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50" s="6">
-        <v>51.424085840100098</v>
+        <v>1260.60471366359</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="7">
-        <v>0</v>
+      <c r="E51" s="6">
+        <v>717.29243303828298</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52" s="6">
-        <v>9.5423590792813204</v>
+        <v>1169.1721246219099</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="7">
-        <v>0</v>
+      <c r="E53" s="6">
+        <v>2416.3382455247702</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
       <c r="C54" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" s="6">
-        <v>6.9030327231657704</v>
+        <v>1754.3800140948599</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
       <c r="C55" s="1">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55" s="6">
-        <v>6.9030327231657704</v>
+        <v>1160.08224506184</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56" s="6">
-        <v>101.463569031392</v>
+        <v>205.63346720499001</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="1">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57" s="6">
-        <v>98.569699389832394</v>
+        <v>195.06980827882401</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
       <c r="C58" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" s="6">
-        <v>70.605728967038701</v>
+        <v>167.68422132763101</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
       <c r="C59" s="1">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" s="6">
-        <v>66.445391802447105</v>
+        <v>313.61176880137498</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60" s="1">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" s="6">
-        <v>64.191173397686299</v>
+        <v>111.489735319007</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="1">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
-      <c r="E61" s="7">
-        <v>0</v>
+      <c r="E61" s="6">
+        <v>46.017727401777201</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="1">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="6">
-        <v>35.626468882598097</v>
+        <v>46.711901738437597</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" s="6">
-        <v>64.191173397686299</v>
+        <v>205.593016486387</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="1">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" s="6">
-        <v>36.061329092873002</v>
+        <v>554.627206664818</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="1">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" s="6">
-        <v>21.977865508891298</v>
+        <v>268.26460797934902</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="1">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66" s="6">
-        <v>23.953245989940299</v>
+        <v>29.203397546897399</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67" s="1">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
       <c r="E67" s="6">
-        <v>17.2222222222222</v>
+        <v>54.3093553861546</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -1598,81 +1595,81 @@
         <v>1</v>
       </c>
       <c r="C68" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" s="7">
-        <v>0</v>
+      <c r="E68" s="6">
+        <v>204.346830686441</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
       <c r="E69" s="6">
-        <v>49.497809945124601</v>
+        <v>139.48392012769199</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" s="6">
-        <v>36.061329092873002</v>
+        <v>6.7820218049388998</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" s="7">
-        <v>0</v>
+      <c r="E71" s="6">
+        <v>1248.13706405884</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
+        <v>57</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
         <v>58</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1">
-        <v>57</v>
-      </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" s="6">
-        <v>6.2984296680089296</v>
+        <v>1132.46279591865</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -1688,8 +1685,8 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73" s="7">
-        <v>0</v>
+      <c r="E73" s="6">
+        <v>312.54874169121399</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -1706,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="6">
-        <v>0</v>
+        <v>2.2897200749193498</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="6">
-        <v>0</v>
+        <v>164.42647142467101</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -1740,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="6">
-        <v>0</v>
+        <v>1217.85998261859</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -1757,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="6">
-        <v>0</v>
+        <v>1233.8985629149599</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -1773,8 +1770,8 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" s="7">
-        <v>0</v>
+      <c r="E78" s="6">
+        <v>624.08751901385199</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -1790,8 +1787,8 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" s="8">
-        <v>1.8</v>
+      <c r="E79" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -1807,8 +1804,8 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" s="7">
-        <v>0</v>
+      <c r="E80" s="6">
+        <v>744.29709657614706</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -1824,8 +1821,8 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" s="7">
-        <v>0</v>
+      <c r="E81" s="6">
+        <v>3.6942960524494102</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -1841,8 +1838,8 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" s="7">
-        <v>0</v>
+      <c r="E82" s="6">
+        <v>16.233103917094802</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -1858,8 +1855,8 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" s="7">
-        <v>0</v>
+      <c r="E83" s="6">
+        <v>1253.7467698688799</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1875,8 +1872,8 @@
       <c r="D84">
         <v>1</v>
       </c>
-      <c r="E84" s="7">
-        <v>0</v>
+      <c r="E84" s="6">
+        <v>3223.9711390247098</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1892,8 +1889,8 @@
       <c r="D85">
         <v>1</v>
       </c>
-      <c r="E85" s="7">
-        <v>0</v>
+      <c r="E85" s="6">
+        <v>65.4737260417794</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -1910,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="6">
-        <v>1.94444444444444</v>
+        <v>984.09192064433705</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -1927,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="6">
-        <v>2.0349036653244101</v>
+        <v>807.18249645954097</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -1944,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="6">
-        <v>2.3103090168662499</v>
+        <v>25.564490476105199</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -1960,8 +1957,8 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" s="7">
-        <v>0</v>
+      <c r="E89" s="6">
+        <v>312.984192471195</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -1977,8 +1974,8 @@
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" s="7">
-        <v>0</v>
+      <c r="E90" s="6">
+        <v>357.09427317558601</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,7 +1992,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="6">
-        <v>3.6241107058749602</v>
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -2012,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="E92" s="6">
-        <v>4.7222222222222197</v>
+        <v>23.163701308559698</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -2029,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="E93" s="6">
-        <v>2.7777777777777799</v>
+        <v>20.8333333333333</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -2046,12 +2043,12 @@
         <v>2</v>
       </c>
       <c r="E94" s="6">
-        <v>4.1666666666666696</v>
+        <v>23.163701308559698</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -2063,12 +2060,12 @@
         <v>2</v>
       </c>
       <c r="E95" s="6">
-        <v>5.8591004242279903</v>
+        <v>22.5275415004376</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2080,7 +2077,7 @@
         <v>2</v>
       </c>
       <c r="E96" s="6">
-        <v>5.8591004242279903</v>
+        <v>15.212254945204901</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -2097,63 +2094,63 @@
         <v>2</v>
       </c>
       <c r="E97" s="6">
-        <v>6.1111111111111098</v>
+        <v>15.336776079653401</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
       <c r="C98" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" s="8">
-        <v>4.93</v>
+      <c r="E98" s="6">
+        <v>15.142211784139</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
       <c r="C99" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" s="6">
-        <v>6.9030327231657704</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" s="6">
-        <v>5.8591004242279903</v>
+        <v>49.943767332648697</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2165,12 +2162,12 @@
         <v>2</v>
       </c>
       <c r="E101" s="6">
-        <v>6.9030327231657704</v>
+        <v>22.888616519202099</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2182,12 +2179,12 @@
         <v>2</v>
       </c>
       <c r="E102" s="6">
-        <v>6.9030327231657704</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -2199,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="E103" s="6">
-        <v>6.78202180490835</v>
+        <v>15.142211784139</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -2216,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="E104" s="6">
-        <v>6.9030327231657704</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -2233,24 +2230,24 @@
         <v>2</v>
       </c>
       <c r="E105" s="6">
-        <v>6.9030327231657704</v>
+        <v>22.2222222222222</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B106">
         <v>2</v>
       </c>
       <c r="C106" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" s="6">
-        <v>8.3333333333333304</v>
+        <v>27.721545110426401</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -2267,12 +2264,12 @@
         <v>2</v>
       </c>
       <c r="E107" s="6">
-        <v>10.5813226464502</v>
+        <v>70.135687253441802</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2284,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="E108" s="6">
-        <v>6.9030327231657704</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -2301,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="E109" s="6">
-        <v>8.05555555555555</v>
+        <v>13.8888888888889</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -2318,12 +2315,12 @@
         <v>2</v>
       </c>
       <c r="E110" s="6">
-        <v>8.3333333333333304</v>
+        <v>27.721545110426401</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B111">
         <v>2</v>
@@ -2335,7 +2332,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="6">
-        <v>10.3682369986577</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -2352,12 +2349,12 @@
         <v>2</v>
       </c>
       <c r="E112" s="6">
-        <v>957.22613753428402</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2369,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="E113" s="6">
-        <v>8.3333333333333304</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -2386,335 +2383,335 @@
         <v>2</v>
       </c>
       <c r="E114" s="6">
-        <v>9.6183140926149697</v>
+        <v>61.491761546064403</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D115">
         <v>2</v>
       </c>
       <c r="E115" s="6">
-        <v>12.5</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B116">
         <v>2</v>
       </c>
       <c r="C116" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D116">
         <v>2</v>
       </c>
       <c r="E116" s="6">
-        <v>13.8888888888889</v>
+        <v>70.135687253441802</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
-        <v>103</v>
+      <c r="A117" s="3">
+        <v>11</v>
       </c>
       <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" s="1">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="C117" s="3">
+        <v>98</v>
       </c>
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" s="6">
-        <v>13.8888888888889</v>
+      <c r="E117" s="9">
+        <v>1.8</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
-        <v>11</v>
+      <c r="A118" s="1">
+        <v>93</v>
       </c>
       <c r="B118">
-        <v>1</v>
-      </c>
-      <c r="C118" s="3">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1">
         <v>98</v>
       </c>
       <c r="D118">
         <v>2</v>
       </c>
       <c r="E118" s="6">
-        <v>2490.0883081923998</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B119">
         <v>2</v>
       </c>
       <c r="C119" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D119">
         <v>2</v>
       </c>
       <c r="E119" s="6">
-        <v>11.1111111111111</v>
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B120">
         <v>2</v>
       </c>
       <c r="C120" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
       <c r="E120" s="6">
-        <v>12.2222222222222</v>
+        <v>33.713983768286703</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>2</v>
       </c>
       <c r="C121" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D121">
         <v>2</v>
       </c>
       <c r="E121" s="6">
-        <v>15</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
-      <c r="E122" s="8">
-        <v>15.43</v>
+      <c r="E122" s="6">
+        <v>22.802626289795199</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B123">
         <v>2</v>
       </c>
       <c r="C123" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
       <c r="E123" s="6">
-        <v>13.8888888888889</v>
+        <v>70.135687253441802</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
-        <v>99</v>
+      <c r="A124" s="4">
+        <v>98</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" s="1">
-        <v>102</v>
+      <c r="C124" s="4">
+        <v>104</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
       <c r="E124" s="6">
-        <v>14.6506772896828</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B125">
         <v>2</v>
       </c>
       <c r="C125" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
       <c r="E125" s="6">
-        <v>15.9608258539493</v>
+        <v>10.102872657175601</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>98</v>
+      <c r="A126" s="1">
+        <v>112</v>
       </c>
       <c r="B126">
         <v>2</v>
       </c>
-      <c r="C126" s="4">
-        <v>104</v>
+      <c r="C126" s="1">
+        <v>105</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126" s="6">
-        <v>1604.8386202181</v>
+        <v>32.367891322780501</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B127">
         <v>2</v>
       </c>
       <c r="C127" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
       <c r="E127" s="6">
-        <v>20.8333333333333</v>
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B128">
         <v>2</v>
       </c>
       <c r="C128" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
       <c r="E128" s="6">
-        <v>21.572045789573099</v>
+        <v>209.59747064219201</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B129">
         <v>2</v>
       </c>
       <c r="C129" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D129">
         <v>2</v>
       </c>
       <c r="E129" s="6">
-        <v>21.774148296158099</v>
+        <v>70.135687253441802</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B130">
         <v>2</v>
       </c>
       <c r="C130" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D130">
         <v>2</v>
       </c>
       <c r="E130" s="6">
-        <v>22.2222222222222</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B131">
         <v>2</v>
       </c>
       <c r="C131" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D131">
         <v>2</v>
       </c>
       <c r="E131" s="6">
-        <v>20.2777777777778</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B132">
         <v>2</v>
       </c>
       <c r="C132" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D132">
         <v>2</v>
       </c>
       <c r="E132" s="6">
-        <v>24.4444444444444</v>
+        <v>42.470763979955997</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
       <c r="C133" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D133">
         <v>2</v>
       </c>
       <c r="E133" s="6">
-        <v>24.4444444444444</v>
+        <v>16.0283156436263</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -2726,177 +2723,177 @@
         <v>2</v>
       </c>
       <c r="E134" s="6">
-        <v>20.8333333333333</v>
+        <v>16.339575679154201</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B135">
         <v>2</v>
       </c>
       <c r="C135" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D135">
         <v>2</v>
       </c>
       <c r="E135" s="6">
-        <v>24.4444444444444</v>
+        <v>23.6111111111111</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
       <c r="C136" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D136">
         <v>2</v>
       </c>
       <c r="E136" s="6">
-        <v>21.818686899496001</v>
+        <v>209.59747064219201</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
       <c r="C137" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D137">
         <v>2</v>
       </c>
       <c r="E137" s="6">
-        <v>28.651848079400501</v>
+        <v>209.59747064219201</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
       <c r="C138" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D138">
         <v>2</v>
       </c>
       <c r="E138" s="6">
-        <v>24.249663956647399</v>
+        <v>209.86169265928999</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B139">
         <v>2</v>
       </c>
       <c r="C139" s="1">
+        <v>116</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="E139" s="6">
+        <v>70.135687253441802</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>109</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140" s="1">
+        <v>117</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="E140" s="6">
+        <v>24.4444444444444</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>115</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" s="4">
         <v>118</v>
       </c>
-      <c r="D139">
-        <v>2</v>
-      </c>
-      <c r="E139" s="6">
-        <v>24.4444444444444</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>115</v>
-      </c>
-      <c r="B140">
-        <v>2</v>
-      </c>
-      <c r="C140" s="4">
-        <v>118</v>
-      </c>
-      <c r="D140">
-        <v>2</v>
-      </c>
-      <c r="E140" s="6">
-        <v>1680.10437545595</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
-        <v>128</v>
-      </c>
-      <c r="B141">
-        <v>2</v>
-      </c>
-      <c r="C141" s="1">
-        <v>119</v>
-      </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141" s="6">
-        <v>32.124307587385303</v>
+        <v>419.459163301481</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B142">
         <v>2</v>
       </c>
       <c r="C142" s="1">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D142">
         <v>2</v>
       </c>
       <c r="E142" s="6">
-        <v>24.4444444444444</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
       <c r="C143" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D143">
         <v>2</v>
       </c>
       <c r="E143" s="6">
-        <v>32.939089885408301</v>
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B144">
         <v>2</v>
       </c>
       <c r="C144" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
       <c r="E144" s="6">
-        <v>24.4444444444444</v>
+        <v>0.80409731328934497</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -2913,12 +2910,12 @@
         <v>2</v>
       </c>
       <c r="E145" s="6">
-        <v>33.197788316597503</v>
+        <v>32.367891322780501</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -2930,12 +2927,12 @@
         <v>2</v>
       </c>
       <c r="E146" s="6">
-        <v>25.568849102128802</v>
+        <v>175.77879261826499</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B147">
         <v>2</v>
@@ -2947,12 +2944,12 @@
         <v>2</v>
       </c>
       <c r="E147" s="6">
-        <v>27.59045922088</v>
+        <v>120.768738271215</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -2964,41 +2961,41 @@
         <v>2</v>
       </c>
       <c r="E148" s="6">
-        <v>33.3333333333333</v>
+        <v>178.46718796755701</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B149">
         <v>2</v>
       </c>
       <c r="C149" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D149">
         <v>2</v>
       </c>
       <c r="E149" s="6">
-        <v>36.196090080560403</v>
+        <v>117.59655770853</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
       <c r="C150" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D150">
         <v>2</v>
       </c>
       <c r="E150" s="6">
-        <v>36.630950290835301</v>
+        <v>116.758878451843</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -3015,177 +3012,177 @@
         <v>2</v>
       </c>
       <c r="E151" s="6">
-        <v>41.6666666666667</v>
+        <v>114.968039887667</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
-        <v>135</v>
+      <c r="A152" s="4">
+        <v>118</v>
       </c>
       <c r="B152">
         <v>2</v>
       </c>
-      <c r="C152" s="1">
-        <v>124</v>
+      <c r="C152" s="4">
+        <v>125</v>
       </c>
       <c r="D152">
         <v>2</v>
       </c>
       <c r="E152" s="6">
-        <v>41.6666666666667</v>
+        <v>225.612406284961</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <v>118</v>
+      <c r="A153" s="1">
+        <v>137</v>
       </c>
       <c r="B153">
         <v>2</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="1">
         <v>125</v>
       </c>
       <c r="D153">
         <v>2</v>
       </c>
       <c r="E153" s="6">
-        <v>1119.7059403810999</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154" s="6">
-        <v>40.8333333333333</v>
+        <v>4.1666666666666696</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B155">
         <v>2</v>
       </c>
       <c r="C155" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D155">
         <v>2</v>
       </c>
       <c r="E155" s="6">
-        <v>46.225198064223903</v>
+        <v>20.2777777777778</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B156">
         <v>2</v>
       </c>
       <c r="C156" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D156">
         <v>2</v>
       </c>
       <c r="E156" s="6">
-        <v>29.0217427803444</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B157">
         <v>2</v>
       </c>
       <c r="C157" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D157">
         <v>2</v>
       </c>
       <c r="E157" s="6">
-        <v>29.201863617877802</v>
+        <v>0.80409731328934497</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B158">
         <v>2</v>
       </c>
       <c r="C158" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D158">
         <v>2</v>
       </c>
       <c r="E158" s="6">
-        <v>960.40841974149998</v>
+        <v>29.6202751642215</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B159">
         <v>2</v>
       </c>
       <c r="C159" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D159">
         <v>2</v>
       </c>
       <c r="E159" s="6">
-        <v>51.814812808717399</v>
+        <v>29.853405300266999</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
       <c r="C160" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D160">
         <v>2</v>
       </c>
       <c r="E160" s="6">
-        <v>53.353713991761701</v>
+        <v>56.812335767224901</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
       <c r="C161" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D161">
         <v>2</v>
       </c>
       <c r="E161" s="6">
-        <v>54.309355386150301</v>
+        <v>175.77879261826499</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -3196,64 +3193,64 @@
         <v>2</v>
       </c>
       <c r="C162" s="1">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162" s="6">
-        <v>55.611602448331901</v>
+        <v>180.24241873570301</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B163">
         <v>2</v>
       </c>
       <c r="C163" s="1">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D163">
         <v>2</v>
       </c>
       <c r="E163" s="6">
-        <v>84.368086091861798</v>
+        <v>178.46718796755701</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="B164">
         <v>2</v>
       </c>
       <c r="C164" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D164">
         <v>2</v>
       </c>
       <c r="E164" s="6">
-        <v>84.368086091861798</v>
+        <v>109.533632359102</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B165">
         <v>2</v>
       </c>
       <c r="C165" s="1">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D165">
         <v>2</v>
       </c>
       <c r="E165" s="6">
-        <v>84.368086091861798</v>
+        <v>109.84687541176299</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -3264,523 +3261,523 @@
         <v>2</v>
       </c>
       <c r="C166" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D166">
         <v>2</v>
       </c>
       <c r="E166" s="6">
-        <v>41.6666666666667</v>
+        <v>129.942968277174</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B167">
         <v>2</v>
       </c>
       <c r="C167" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D167">
         <v>2</v>
       </c>
       <c r="E167" s="6">
-        <v>84.368086091861798</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B168">
         <v>2</v>
       </c>
       <c r="C168" s="1">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D168">
         <v>2</v>
       </c>
       <c r="E168" s="6">
-        <v>84.368086091861798</v>
+        <v>12.2222222222222</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B169">
         <v>2</v>
       </c>
       <c r="C169" s="1">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D169">
         <v>2</v>
       </c>
       <c r="E169" s="6">
-        <v>36.630950290835301</v>
+        <v>8.05555555555555</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170" s="1">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D170">
         <v>2</v>
       </c>
       <c r="E170" s="6">
-        <v>46.916282371722097</v>
+        <v>193.846757016521</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B171">
         <v>2</v>
       </c>
       <c r="C171" s="1">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D171">
         <v>2</v>
       </c>
       <c r="E171" s="6">
-        <v>49.480883731260803</v>
+        <v>0.80409731328934497</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B172">
         <v>2</v>
       </c>
       <c r="C172" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D172">
         <v>2</v>
       </c>
       <c r="E172" s="6">
-        <v>49.5805658131627</v>
+        <v>3.9181249089328798</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
       <c r="C173" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D173">
         <v>2</v>
       </c>
       <c r="E173" s="6">
-        <v>85.184888618303702</v>
+        <v>237.05475450292801</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
       <c r="C174" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D174">
         <v>2</v>
       </c>
       <c r="E174" s="6">
-        <v>53.466187224788797</v>
+        <v>24.4444444444444</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
+        <v>153</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175" s="1">
         <v>144</v>
       </c>
-      <c r="B175">
-        <v>2</v>
-      </c>
-      <c r="C175" s="1">
-        <v>142</v>
-      </c>
       <c r="D175">
         <v>2</v>
       </c>
       <c r="E175" s="6">
-        <v>93.106163133849094</v>
+        <v>151.33012161892</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="B176">
         <v>2</v>
       </c>
       <c r="C176" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D176">
         <v>2</v>
       </c>
       <c r="E176" s="6">
-        <v>58.174712350983199</v>
+        <v>178.46718796755701</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B177">
         <v>2</v>
       </c>
       <c r="C177" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D177">
         <v>2</v>
       </c>
       <c r="E177" s="6">
-        <v>96.701863617877805</v>
+        <v>92.946529203662195</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
       <c r="C178" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D178">
         <v>2</v>
       </c>
       <c r="E178" s="6">
-        <v>96.701863617877805</v>
+        <v>93.105814637479597</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D179">
         <v>2</v>
       </c>
       <c r="E179" s="6">
-        <v>96.701863617877805</v>
+        <v>110.772388517371</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B180">
         <v>2</v>
       </c>
       <c r="C180" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D180">
         <v>2</v>
       </c>
       <c r="E180" s="6">
-        <v>96.701863617877805</v>
+        <v>108.608119253494</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
       <c r="C181" s="1">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D181">
         <v>2</v>
       </c>
       <c r="E181" s="6">
-        <v>101.463569031392</v>
+        <v>129.942968277174</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B182">
         <v>2</v>
       </c>
       <c r="C182" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D182">
         <v>2</v>
       </c>
       <c r="E182" s="6">
-        <v>128.88099143804101</v>
+        <v>49.853960275985699</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B183">
         <v>2</v>
       </c>
       <c r="C183" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D183">
         <v>2</v>
       </c>
       <c r="E183" s="6">
-        <v>148.559259489548</v>
+        <v>49.8369184459346</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B184">
         <v>2</v>
       </c>
       <c r="C184" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D184">
         <v>2</v>
       </c>
       <c r="E184" s="6">
-        <v>84.368086091861798</v>
+        <v>49.9372813885266</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B185">
         <v>2</v>
       </c>
       <c r="C185" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D185">
         <v>2</v>
       </c>
       <c r="E185" s="6">
-        <v>148.559259489548</v>
+        <v>1.1111111111111101</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
       <c r="C186" s="1">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D186">
         <v>2</v>
       </c>
       <c r="E186" s="6">
-        <v>148.559259489548</v>
+        <v>0.83333333333333304</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="B187">
         <v>2</v>
       </c>
       <c r="C187" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D187">
         <v>2</v>
       </c>
       <c r="E187" s="6">
-        <v>150.072915805272</v>
+        <v>6.1111111111111098</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B188">
         <v>2</v>
       </c>
       <c r="C188" s="1">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D188">
         <v>2</v>
       </c>
       <c r="E188" s="6">
-        <v>86.4635690313917</v>
+        <v>151.33012161892</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
       <c r="C189" s="1">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D189">
         <v>2</v>
       </c>
       <c r="E189" s="6">
-        <v>90.2003254125176</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B190">
         <v>2</v>
       </c>
       <c r="C190" s="1">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D190">
         <v>2</v>
       </c>
       <c r="E190" s="6">
-        <v>92.946877114931098</v>
+        <v>92.894881012194205</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="B191">
         <v>2</v>
       </c>
       <c r="C191" s="1">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D191">
         <v>2</v>
       </c>
       <c r="E191" s="6">
-        <v>96.701863617877805</v>
+        <v>197.16345495225301</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
       <c r="C192" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D192">
         <v>2</v>
       </c>
       <c r="E192" s="6">
-        <v>156.33720361452299</v>
+        <v>38.824952215309899</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="B193">
         <v>2</v>
       </c>
       <c r="C193" s="1">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D193">
         <v>2</v>
       </c>
-      <c r="E193" s="6">
-        <v>159.74181903117</v>
+      <c r="E193" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B194">
         <v>2</v>
       </c>
       <c r="C194" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D194">
         <v>2</v>
       </c>
       <c r="E194" s="6">
-        <v>170.831655123254</v>
+        <v>90.617464264007907</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="B195">
         <v>2</v>
       </c>
       <c r="C195" s="1">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D195">
         <v>2</v>
       </c>
       <c r="E195" s="6">
-        <v>170.831655123254</v>
+        <v>89.938091291547593</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
-        <v>222</v>
+        <v>148</v>
       </c>
       <c r="B196">
         <v>2</v>
       </c>
       <c r="C196" s="1">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D196">
         <v>2</v>
       </c>
       <c r="E196" s="6">
-        <v>1118.6455142325899</v>
+        <v>16.6666666666667</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -3797,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="E197" s="6">
-        <v>148.559259489548</v>
+        <v>113.27630161050701</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -3813,13 +3810,13 @@
       <c r="D198">
         <v>2</v>
       </c>
-      <c r="E198" s="6">
-        <v>1085.6041545097</v>
+      <c r="E198" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -3831,12 +3828,12 @@
         <v>2</v>
       </c>
       <c r="E199" s="6">
-        <v>150.072915805272</v>
+        <v>103.74700850613</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B200">
         <v>2</v>
@@ -3848,29 +3845,29 @@
         <v>2</v>
       </c>
       <c r="E200" s="6">
-        <v>177.66245467484899</v>
+        <v>113.44472064498601</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="B201">
         <v>2</v>
       </c>
       <c r="C201" s="1">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D201">
         <v>2</v>
       </c>
       <c r="E201" s="6">
-        <v>183.43889678453999</v>
+        <v>113.27630161050701</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="B202">
         <v>2</v>
@@ -3882,58 +3879,58 @@
         <v>2</v>
       </c>
       <c r="E202" s="6">
-        <v>177.66245467484899</v>
+        <v>70.120968396405004</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
-        <v>190</v>
+      <c r="A203" s="3">
+        <v>21</v>
       </c>
       <c r="B203">
-        <v>2</v>
-      </c>
-      <c r="C203" s="1">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="C203" s="3">
+        <v>162</v>
       </c>
       <c r="D203">
         <v>2</v>
       </c>
-      <c r="E203" s="6">
-        <v>242.18081050094401</v>
+      <c r="E203" s="9">
+        <v>4.93</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="3">
-        <v>21</v>
+      <c r="A204" s="1">
+        <v>149</v>
       </c>
       <c r="B204">
-        <v>1</v>
-      </c>
-      <c r="C204" s="3">
+        <v>2</v>
+      </c>
+      <c r="C204" s="1">
         <v>162</v>
       </c>
       <c r="D204">
         <v>2</v>
       </c>
       <c r="E204" s="6">
-        <v>1848.5204062253999</v>
+        <v>149.628160110447</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B205">
         <v>2</v>
       </c>
       <c r="C205" s="1">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D205">
         <v>2</v>
       </c>
       <c r="E205" s="6">
-        <v>148.95163659296199</v>
+        <v>1.3888888888888899</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -3944,183 +3941,183 @@
         <v>2</v>
       </c>
       <c r="C206" s="1">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D206">
         <v>2</v>
       </c>
       <c r="E206" s="6">
-        <v>151.33081802655801</v>
+        <v>4.7222222222222197</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="B207">
         <v>2</v>
       </c>
       <c r="C207" s="1">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D207">
         <v>2</v>
       </c>
       <c r="E207" s="6">
-        <v>151.33081802655801</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B208">
         <v>2</v>
       </c>
       <c r="C208" s="1">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D208">
         <v>2</v>
       </c>
       <c r="E208" s="6">
-        <v>197.16415135989101</v>
+        <v>107.89488101219401</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="B209">
         <v>2</v>
       </c>
       <c r="C209" s="1">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D209">
         <v>2</v>
       </c>
       <c r="E209" s="6">
-        <v>199.25804834431901</v>
+        <v>11.1111111111111</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="B210">
         <v>2</v>
       </c>
       <c r="C210" s="1">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D210">
         <v>2</v>
       </c>
       <c r="E210" s="6">
-        <v>168.40773939247899</v>
+        <v>135.44692725380801</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B211">
         <v>2</v>
       </c>
       <c r="C211" s="1">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D211">
         <v>2</v>
       </c>
       <c r="E211" s="6">
-        <v>205.55517407807301</v>
+        <v>27.7777777777778</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="B212">
         <v>2</v>
       </c>
       <c r="C212" s="1">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D212">
         <v>2</v>
       </c>
       <c r="E212" s="6">
-        <v>206.524634051151</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B213">
         <v>2</v>
       </c>
       <c r="C213" s="1">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D213">
         <v>2</v>
       </c>
       <c r="E213" s="6">
-        <v>170.831655123254</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="B214">
         <v>2</v>
       </c>
       <c r="C214" s="1">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D214">
         <v>2</v>
       </c>
-      <c r="E214" s="6">
-        <v>207.61744252787699</v>
+      <c r="E214" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="B215">
         <v>2</v>
       </c>
       <c r="C215" s="1">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D215">
         <v>2</v>
       </c>
       <c r="E215" s="6">
-        <v>1094.22596769955</v>
+        <v>38.952825562467901</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B216">
         <v>2</v>
       </c>
       <c r="C216" s="1">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D216">
         <v>2</v>
       </c>
       <c r="E216" s="6">
-        <v>235.742936305841</v>
+        <v>33.346185115213501</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -4137,12 +4134,12 @@
         <v>2</v>
       </c>
       <c r="E217" s="6">
-        <v>178.11592459070201</v>
+        <v>34.2173839254557</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -4154,7 +4151,7 @@
         <v>2</v>
       </c>
       <c r="E218" s="6">
-        <v>189.53496605492299</v>
+        <v>21.616584392910902</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -4171,7 +4168,7 @@
         <v>2</v>
       </c>
       <c r="E219" s="6">
-        <v>262.73376656649498</v>
+        <v>21.774148296158199</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -4188,7 +4185,7 @@
         <v>2</v>
       </c>
       <c r="E220" s="6">
-        <v>1733.84372215138</v>
+        <v>149.628160110447</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -4205,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="E221" s="6">
-        <v>191.27168531726201</v>
+        <v>2.7777777777777799</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -4222,7 +4219,7 @@
         <v>2</v>
       </c>
       <c r="E222" s="6">
-        <v>195.91373807441201</v>
+        <v>1.94444444444444</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -4239,182 +4236,182 @@
         <v>2</v>
       </c>
       <c r="E223" s="6">
-        <v>273.41009694561899</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="B224">
         <v>2</v>
       </c>
       <c r="C224" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D224">
         <v>2</v>
       </c>
       <c r="E224" s="6">
-        <v>204.34683068640899</v>
+        <v>107.89488101219401</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="B225">
         <v>2</v>
       </c>
       <c r="C225" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D225">
         <v>2</v>
       </c>
       <c r="E225" s="6">
-        <v>282.82040074390102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B226">
         <v>2</v>
       </c>
       <c r="C226" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D226">
         <v>2</v>
       </c>
       <c r="E226" s="6">
-        <v>209.80339083931199</v>
+        <v>77.172361190443695</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B227">
         <v>2</v>
       </c>
       <c r="C227" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D227">
         <v>2</v>
       </c>
       <c r="E227" s="6">
-        <v>302.26830146243702</v>
+        <v>57.111408710639402</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B228">
         <v>2</v>
       </c>
       <c r="C228" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D228">
         <v>2</v>
       </c>
       <c r="E228" s="6">
-        <v>226.95799181894901</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B229">
         <v>2</v>
       </c>
       <c r="C229" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D229">
         <v>2</v>
       </c>
       <c r="E229" s="6">
-        <v>232.41809299958501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B230">
         <v>2</v>
       </c>
       <c r="C230" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D230">
         <v>2</v>
       </c>
       <c r="E230" s="6">
-        <v>328.98112508294702</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B231">
         <v>2</v>
       </c>
       <c r="C231" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D231">
         <v>2</v>
       </c>
       <c r="E231" s="6">
-        <v>435.50638653231101</v>
+        <v>52.804772961941303</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B232">
         <v>2</v>
       </c>
       <c r="C232" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D232">
         <v>2</v>
       </c>
       <c r="E232" s="6">
-        <v>242.18081050094401</v>
+        <v>38.952825562467901</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B233">
         <v>2</v>
       </c>
       <c r="C233" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D233">
         <v>2</v>
       </c>
       <c r="E233" s="6">
-        <v>459.94269013903499</v>
+        <v>2.71384110419875</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B234">
         <v>2</v>
@@ -4426,12 +4423,12 @@
         <v>2</v>
       </c>
       <c r="E234" s="6">
-        <v>459.94269013903602</v>
+        <v>83.283098893030299</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
-        <v>204</v>
+        <v>161</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -4443,7 +4440,7 @@
         <v>2</v>
       </c>
       <c r="E235" s="6">
-        <v>460.86926996666102</v>
+        <v>155.61949222913501</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -4460,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="E236" s="6">
-        <v>258.84747716761001</v>
+        <v>110.95430172973801</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -4476,13 +4473,13 @@
       <c r="D237">
         <v>2</v>
       </c>
-      <c r="E237" s="6">
-        <v>1749.5969396959099</v>
+      <c r="E237" s="9">
+        <v>15.43</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -4494,7 +4491,7 @@
         <v>2</v>
       </c>
       <c r="E238" s="6">
-        <v>258.84747716761001</v>
+        <v>21.572045789575601</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -4511,126 +4508,126 @@
         <v>2</v>
       </c>
       <c r="E239" s="6">
-        <v>508.77342335551202</v>
+        <v>21.8186868994935</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="B240">
         <v>2</v>
       </c>
       <c r="C240" s="1">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D240">
         <v>2</v>
       </c>
       <c r="E240" s="6">
-        <v>531.36615542850996</v>
+        <v>149.628160110447</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="B241">
         <v>2</v>
       </c>
       <c r="C241" s="1">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D241">
         <v>2</v>
       </c>
       <c r="E241" s="6">
-        <v>267.47562101070997</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B242">
         <v>2</v>
       </c>
       <c r="C242" s="1">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D242">
         <v>2</v>
       </c>
       <c r="E242" s="6">
-        <v>594.39929222012097</v>
+        <v>64.055853155083796</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B243">
         <v>2</v>
       </c>
       <c r="C243" s="1">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D243">
         <v>2</v>
       </c>
       <c r="E243" s="6">
-        <v>301.61266638066002</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B244">
         <v>2</v>
       </c>
       <c r="C244" s="1">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D244">
         <v>2</v>
       </c>
       <c r="E244" s="6">
-        <v>640.10838527648696</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B245">
         <v>2</v>
       </c>
       <c r="C245" s="1">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D245">
         <v>2</v>
       </c>
       <c r="E245" s="6">
-        <v>308.15450526903999</v>
+        <v>11.047174437532099</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B246">
         <v>2</v>
       </c>
       <c r="C246" s="1">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D246">
         <v>2</v>
       </c>
       <c r="E246" s="6">
-        <v>308.85687899853002</v>
+        <v>13.851947399473399</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -4647,12 +4644,12 @@
         <v>2</v>
       </c>
       <c r="E247" s="6">
-        <v>657.68240607458904</v>
+        <v>27.814719267193201</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -4664,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="E248" s="6">
-        <v>353.12636027053202</v>
+        <v>80.619492229134593</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -4681,12 +4678,12 @@
         <v>2</v>
       </c>
       <c r="E249" s="6">
-        <v>355.54934078548803</v>
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B250">
         <v>2</v>
@@ -4698,29 +4695,29 @@
         <v>2</v>
       </c>
       <c r="E250" s="6">
-        <v>456.91899162981099</v>
+        <v>93.732079507516104</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B251">
         <v>2</v>
       </c>
       <c r="C251" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D251">
         <v>2</v>
       </c>
       <c r="E251" s="6">
-        <v>495.29343439489003</v>
+        <v>6.6094390991998004</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -4732,12 +4729,12 @@
         <v>2</v>
       </c>
       <c r="E252" s="6">
-        <v>744.29709657617195</v>
+        <v>6.5526913974255701</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B253">
         <v>2</v>
@@ -4749,7 +4746,7 @@
         <v>2</v>
       </c>
       <c r="E253" s="6">
-        <v>721.16600424736498</v>
+        <v>113.95282556246801</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -4765,8 +4762,8 @@
       <c r="D254">
         <v>2</v>
       </c>
-      <c r="E254" s="6">
-        <v>3223.9711390246798</v>
+      <c r="E254" s="9">
+        <v>1.72</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -4783,109 +4780,109 @@
         <v>2</v>
       </c>
       <c r="E255" s="6">
-        <v>555.13669185899903</v>
+        <v>149.628160110447</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B256">
         <v>2</v>
       </c>
       <c r="C256" s="1">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D256">
         <v>2</v>
       </c>
       <c r="E256" s="6">
-        <v>795.870718965126</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B257">
         <v>2</v>
       </c>
       <c r="C257" s="1">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D257">
         <v>2</v>
       </c>
       <c r="E257" s="6">
-        <v>859.43387734927001</v>
+        <v>64.055853155083796</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B258">
         <v>2</v>
       </c>
       <c r="C258" s="1">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D258">
         <v>2</v>
       </c>
       <c r="E258" s="6">
-        <v>638.629251141802</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B259">
         <v>2</v>
       </c>
       <c r="C259" s="1">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D259">
         <v>2</v>
       </c>
       <c r="E259" s="6">
-        <v>644.57245262293702</v>
+        <v>41.6666666666667</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B260">
         <v>2</v>
       </c>
       <c r="C260" s="1">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D260">
         <v>2</v>
       </c>
       <c r="E260" s="6">
-        <v>714.72744613294901</v>
+        <v>10.4489806144857</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B261">
         <v>2</v>
       </c>
       <c r="C261" s="1">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D261">
         <v>2</v>
       </c>
       <c r="E261" s="6">
-        <v>722.82948017282297</v>
+        <v>6.2176860521809303</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -4902,7 +4899,7 @@
         <v>2</v>
       </c>
       <c r="E262" s="6">
-        <v>919.93559904526796</v>
+        <v>2.1156472811524001</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -4919,7 +4916,7 @@
         <v>2</v>
       </c>
       <c r="E263" s="6">
-        <v>763.35338857505599</v>
+        <v>33.3333333333333</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -4936,7 +4933,7 @@
         <v>2</v>
       </c>
       <c r="E264" s="6">
-        <v>841.379480300453</v>
+        <v>85.572306955363004</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -4953,7 +4950,7 @@
         <v>2</v>
       </c>
       <c r="E265" s="6">
-        <v>910.55994697600499</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -4970,7 +4967,7 @@
         <v>2</v>
       </c>
       <c r="E266" s="6">
-        <v>946.06479817781701</v>
+        <v>8.3333333333333304</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -4986,8 +4983,8 @@
       <c r="D267">
         <v>2</v>
       </c>
-      <c r="E267" s="6">
-        <v>1014.44180120548</v>
+      <c r="E267" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -5003,8 +5000,8 @@
       <c r="D268">
         <v>2</v>
       </c>
-      <c r="E268" s="6">
-        <v>1253.7467698688599</v>
+      <c r="E268" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -5020,8 +5017,8 @@
       <c r="D269">
         <v>2</v>
       </c>
-      <c r="E269" s="6">
-        <v>1088.59563079289</v>
+      <c r="E269" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -5037,8 +5034,8 @@
       <c r="D270">
         <v>2</v>
       </c>
-      <c r="E270" s="6">
-        <v>1340.68695366312</v>
+      <c r="E270" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -5054,8 +5051,8 @@
       <c r="D271">
         <v>2</v>
       </c>
-      <c r="E271" s="6">
-        <v>1100.0796558196801</v>
+      <c r="E271" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -5071,13 +5068,13 @@
       <c r="D272">
         <v>2</v>
       </c>
-      <c r="E272" s="6">
-        <v>1482.8611613702701</v>
+      <c r="E272" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E273">
-    <sortCondition ref="C1:C273"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E277">
+    <sortCondition ref="C1:C277"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
